--- a/data/trans_dic/P55$amigo-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02306452554753659</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04593932177811937</v>
+        <v>0.04593932177811936</v>
       </c>
     </row>
     <row r="5">
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01102365052492879</v>
+        <v>0.00966060194791532</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004590035270823501</v>
+        <v>0.005631376448880264</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003909195934850139</v>
+        <v>0.003961547394115712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01134019057414993</v>
+        <v>0.01142746357921494</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03332377352962854</v>
+        <v>0.03363931381314432</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006125083733497343</v>
+        <v>0.005363276749978899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.00289630666540361</v>
+        <v>0.002841766711278871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008085306420373476</v>
+        <v>0.008167960692747464</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03055546086693257</v>
+        <v>0.03125978154999677</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05580652208689695</v>
+        <v>0.04870455043243074</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03765421356040988</v>
+        <v>0.04603332519456727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04392977285287877</v>
+        <v>0.05357572624483915</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07018025785191302</v>
+        <v>0.0663809937902109</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04824244441682328</v>
+        <v>0.0471578790475864</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03360520970021035</v>
+        <v>0.03423784027230575</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05975719040925023</v>
+        <v>0.06446018649489575</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07985575546701221</v>
+        <v>0.08032452249041765</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0350511251247804</v>
+        <v>0.03472481873595747</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02637704795676445</v>
+        <v>0.02641568736143796</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04776002521660977</v>
+        <v>0.04629278411435386</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06652469027418066</v>
+        <v>0.06595163783673944</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07665477292066446</v>
+        <v>0.07665477292066447</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0.02214635410109598</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03177881129592445</v>
+        <v>0.03177881129592446</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02778947786392371</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.03023696126716576</v>
+        <v>0.03015367670816816</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.007804780441912901</v>
+        <v>0.00817815183716643</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02565402630545172</v>
+        <v>0.02525371150977247</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3064136997331197</v>
+        <v>0.299908241729265</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4774011041847336</v>
+        <v>0.4861992773969543</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1607775719688797</v>
+        <v>0.1588246369241279</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.114748697203615</v>
+        <v>0.1140299099736854</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0814675328631126</v>
+        <v>0.07667723629646368</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1220347039611458</v>
+        <v>0.1434226615809867</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2835206491927161</v>
+        <v>0.2597854182859149</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07862366954726363</v>
+        <v>0.08616852406829219</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08997226809630983</v>
+        <v>0.09259760891218521</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05583708357829921</v>
+        <v>0.0558370835782992</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1618271254648659</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08258502603618885</v>
+        <v>0.08258502603618884</v>
       </c>
     </row>
     <row r="11">
@@ -979,7 +979,7 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.03112648534493954</v>
+        <v>0.03049735540594968</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.02043374914892963</v>
+        <v>0.02786210573533547</v>
       </c>
     </row>
     <row r="12">
@@ -1001,23 +1001,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.2511042217651318</v>
+        <v>0.2251552702901195</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4302610618635767</v>
+        <v>0.4544353838275826</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3088605295778342</v>
+        <v>0.2729012417023159</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2921909111698577</v>
+        <v>0.2910961715153166</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.1968262983563481</v>
+        <v>0.1928426550440384</v>
       </c>
     </row>
     <row r="13">
@@ -1053,7 +1053,7 @@
         <v>0.02703546515635229</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05126711623433858</v>
+        <v>0.0512671162343386</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02082578960281061</v>
@@ -1079,37 +1079,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007287621290187783</v>
+        <v>0.007113892233373203</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02534443598634027</v>
+        <v>0.02506677655941333</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009226009984120122</v>
+        <v>0.009072933232356428</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00360459117588439</v>
+        <v>0.003599666371499464</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009384709233459113</v>
+        <v>0.009245450066440087</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03580223074714918</v>
+        <v>0.03532227170769583</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00958602821989999</v>
+        <v>0.009108090189088055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.00736555817297244</v>
+        <v>0.00764354036645185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.009160072483910379</v>
+        <v>0.00921212496459263</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03609185844547567</v>
+        <v>0.03506146802244079</v>
       </c>
     </row>
     <row r="15">
@@ -1120,40 +1120,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05156814449601629</v>
+        <v>0.04458187618541827</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08767028858283824</v>
+        <v>0.09237633340162808</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03425978001441873</v>
+        <v>0.03380395760645717</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07984591085427047</v>
+        <v>0.0772836719368637</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05010127700810785</v>
+        <v>0.05029425240250963</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03100405042341283</v>
+        <v>0.03189429510055648</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05613101291122055</v>
+        <v>0.05399922735104487</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0744994407202664</v>
+        <v>0.07378400291377578</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03891674917973339</v>
+        <v>0.03986961977275038</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0400502159332043</v>
+        <v>0.04326177470805904</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0413196162386994</v>
+        <v>0.04269545784466733</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06760053307610842</v>
+        <v>0.06544565507897196</v>
       </c>
     </row>
     <row r="16">
@@ -1432,31 +1432,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1144</v>
+        <v>1002</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>945</v>
+        <v>1159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2365</v>
+        <v>2383</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9224</v>
+        <v>9312</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1892</v>
+        <v>1657</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2442</v>
+        <v>2467</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11629</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="7">
@@ -1467,40 +1467,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5750</v>
+        <v>5018</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4674</v>
+        <v>5714</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4106</v>
+        <v>5007</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7283</v>
+        <v>6888</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9931</v>
+        <v>9707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8430</v>
+        <v>8588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12463</v>
+        <v>13444</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22105</v>
+        <v>22235</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10826</v>
+        <v>10726</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9891</v>
+        <v>9905</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14425</v>
+        <v>13982</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25318</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="8">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2821</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="11">
@@ -1641,34 +1641,34 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4347</v>
+        <v>4255</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9555</v>
+        <v>9731</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>7608</v>
+        <v>7516</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>5972</v>
+        <v>5934</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5104</v>
+        <v>4804</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3379</v>
+        <v>3971</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>11672</v>
+        <v>10695</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5890</v>
+        <v>6455</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>9895</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="12">
@@ -1782,7 +1782,7 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>660</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
@@ -1804,23 +1804,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4162</v>
+        <v>3731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4979</v>
+        <v>5259</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4863</v>
+        <v>4297</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6118</v>
+        <v>6095</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>6361</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="16">
@@ -1926,37 +1926,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4249</v>
+        <v>4203</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2509</v>
+        <v>2472</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12717</v>
+        <v>12547</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3427</v>
+        <v>3256</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3113</v>
+        <v>3230</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3562</v>
+        <v>3582</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>18872</v>
+        <v>18333</v>
       </c>
     </row>
     <row r="19">
@@ -1967,40 +1967,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6527</v>
+        <v>5643</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12815</v>
+        <v>13502</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4161</v>
+        <v>4106</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13387</v>
+        <v>12958</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11569</v>
+        <v>11614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8570</v>
+        <v>8816</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15007</v>
+        <v>14437</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26463</v>
+        <v>26209</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13913</v>
+        <v>14253</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>16925</v>
+        <v>18282</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16066</v>
+        <v>16601</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>35347</v>
+        <v>34220</v>
       </c>
     </row>
     <row r="20">
